--- a/World_Indices_List.xlsx
+++ b/World_Indices_List.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="Major" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Currencies" sheetId="3" r:id="rId3"/>
+    <sheet name="Commodities" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="213">
   <si>
     <t>Sr No</t>
   </si>
@@ -481,6 +482,180 @@
   </si>
   <si>
     <t>TNDUSD=X</t>
+  </si>
+  <si>
+    <t>Canadian Dollar</t>
+  </si>
+  <si>
+    <t>Brazilian Real</t>
+  </si>
+  <si>
+    <t>Mexican Peso</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>British Pound</t>
+  </si>
+  <si>
+    <t>Swiss Francs</t>
+  </si>
+  <si>
+    <t>Danish Krone</t>
+  </si>
+  <si>
+    <t>Russian Ruble</t>
+  </si>
+  <si>
+    <t>Turkish Lira</t>
+  </si>
+  <si>
+    <t>Japanese Yen</t>
+  </si>
+  <si>
+    <t>Australian Dollar</t>
+  </si>
+  <si>
+    <t>New Zealand Dollar</t>
+  </si>
+  <si>
+    <t>Chinese Yuan</t>
+  </si>
+  <si>
+    <t>Hong Kong Dollar</t>
+  </si>
+  <si>
+    <t>Taiwanese Dollar</t>
+  </si>
+  <si>
+    <t>Thai Baht</t>
+  </si>
+  <si>
+    <t>Korean Won</t>
+  </si>
+  <si>
+    <t>Indonesian Rupiah</t>
+  </si>
+  <si>
+    <t>Indian Rupee</t>
+  </si>
+  <si>
+    <t>Philippine Peso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnamese Dong </t>
+  </si>
+  <si>
+    <t>Chilean Peso</t>
+  </si>
+  <si>
+    <t>Colombian Peso</t>
+  </si>
+  <si>
+    <t>Malaysian Ringgit</t>
+  </si>
+  <si>
+    <t>Singapore Dollar</t>
+  </si>
+  <si>
+    <t>South African Rand</t>
+  </si>
+  <si>
+    <t>Peruvian Sol</t>
+  </si>
+  <si>
+    <t>Aussie Yen</t>
+  </si>
+  <si>
+    <t>AUDJPY=X</t>
+  </si>
+  <si>
+    <t>Euro/Swiss Francs</t>
+  </si>
+  <si>
+    <t>EURCHF=X</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>DX-Y.NYB</t>
+  </si>
+  <si>
+    <t>Dollar Index</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+  <si>
+    <t>Crude Oil WTI</t>
+  </si>
+  <si>
+    <t>Brent Oil</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Heating Oil</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>MCX Zinc</t>
+  </si>
+  <si>
+    <t>MCX Lead</t>
+  </si>
+  <si>
+    <t>MCX Nickel</t>
+  </si>
+  <si>
+    <t>US Corn</t>
+  </si>
+  <si>
+    <t>US Soybeans</t>
+  </si>
+  <si>
+    <t>US Cotton #2</t>
+  </si>
+  <si>
+    <t>US Cocoa</t>
+  </si>
+  <si>
+    <t>US Coffee C</t>
+  </si>
+  <si>
+    <t>US Sugar #11</t>
+  </si>
+  <si>
+    <t>Live Cattle</t>
+  </si>
+  <si>
+    <t>Lean Hogs</t>
+  </si>
+  <si>
+    <t>Lumber</t>
+  </si>
+  <si>
+    <t>Commodities</t>
   </si>
 </sst>
 </file>
@@ -531,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -539,6 +714,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,7 +1064,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -899,7 +1079,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -914,7 +1094,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -929,7 +1109,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -944,7 +1124,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -959,7 +1139,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -974,7 +1154,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -989,7 +1169,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1004,7 +1184,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1019,7 +1199,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1034,7 +1214,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1049,7 +1229,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1064,7 +1244,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1079,7 +1259,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1094,7 +1274,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1109,7 +1289,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1124,7 +1304,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1139,7 +1319,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1154,7 +1334,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1169,7 +1349,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1184,7 +1364,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1199,7 +1379,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1214,7 +1394,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1229,7 +1409,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1244,7 +1424,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1259,7 +1439,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f>A27+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1274,7 +1454,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f>A28+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1289,7 +1469,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1304,7 +1484,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f>A30+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1319,7 +1499,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f>A31+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1334,7 +1514,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f>A32+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1349,7 +1529,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f>A33+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1364,7 +1544,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f>A34+1</f>
+        <f t="shared" ref="A35:A61" si="1">A34+1</f>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1379,7 +1559,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f>A35+1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1394,7 +1574,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f>A36+1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1409,7 +1589,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f>A37+1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1424,7 +1604,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <f>A38+1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1439,7 +1619,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <f>A39+1</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1454,7 +1634,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <f>A40+1</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1469,7 +1649,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <f>A41+1</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1484,7 +1664,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <f>A42+1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1499,7 +1679,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <f>A43+1</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1514,7 +1694,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <f>A44+1</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1529,7 +1709,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <f>A45+1</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1544,7 +1724,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <f>A46+1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1559,7 +1739,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <f>A47+1</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1574,7 +1754,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <f>A48+1</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1589,7 +1769,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <f>A49+1</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1604,7 +1784,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <f>A50+1</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -1619,7 +1799,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <f>A51+1</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -1634,7 +1814,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <f>A52+1</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -1649,7 +1829,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <f>A53+1</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -1664,7 +1844,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <f>A54+1</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -1679,7 +1859,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <f>A55+1</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -1694,7 +1874,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <f>A56+1</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -1709,7 +1889,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <f>A57+1</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -1724,7 +1904,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <f>A58+1</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -1739,7 +1919,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <f>A59+1</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -1754,7 +1934,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <f>A60+1</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -1776,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="C5:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,7 +1997,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A40" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1832,7 +2012,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1847,7 +2027,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1862,7 +2042,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1877,7 +2057,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1892,7 +2072,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1907,7 +2087,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1922,7 +2102,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1937,7 +2117,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1952,7 +2132,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1967,7 +2147,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1982,7 +2162,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1997,7 +2177,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2012,7 +2192,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2027,7 +2207,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2042,7 +2222,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2057,7 +2237,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2072,7 +2252,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2087,7 +2267,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2102,7 +2282,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2117,7 +2297,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2132,7 +2312,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2147,7 +2327,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2162,7 +2342,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2177,7 +2357,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2192,7 +2372,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f>A27+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2207,7 +2387,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f>A28+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2222,7 +2402,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2237,7 +2417,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f>A30+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2252,7 +2432,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f>A31+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2267,7 +2447,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f>A32+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2282,7 +2462,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f>A33+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2297,7 +2477,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f>A34+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2312,7 +2492,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f>A35+1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2327,7 +2507,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f>A36+1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2342,7 +2522,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f>A37+1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2357,7 +2537,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <f>A38+1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2372,7 +2552,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <f>A39+1</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2392,12 +2572,400 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/World_Indices_List.xlsx
+++ b/World_Indices_List.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="Major" sheetId="2" r:id="rId2"/>
     <sheet name="Currencies" sheetId="3" r:id="rId3"/>
     <sheet name="Commodities" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="iso" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="249">
   <si>
     <t>Sr No</t>
   </si>
@@ -656,6 +658,114 @@
   </si>
   <si>
     <t>Commodities</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Lon</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>TWN</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>iso_alpha</t>
+  </si>
+  <si>
+    <t>iso_num</t>
   </si>
 </sst>
 </file>
@@ -1954,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="C5:D40"/>
+      <selection activeCell="B1" sqref="B1:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,7 +2107,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A40" si="0">A2+1</f>
+        <f t="shared" ref="A3:A17" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2222,86 +2332,86 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f>A17+1</f>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A19:A39" si="1">A18+1</f>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>74</v>
@@ -2312,101 +2422,101 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>95</v>
@@ -2417,151 +2527,136 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2841,7 +2936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2968,4 +3063,833 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C246"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <f>Major!A39+1</f>
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>37.090240000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-95.712890999999999</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>37.090240000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-95.712890999999999</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>37.090240000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-95.712890999999999</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>56.130366000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-106.346771</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-14.235004</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-51.925280000000001</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>23.634501</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-102.552784</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3">
+        <v>51.165691000000002</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10.451525999999999</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
+        <v>55.378050999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-3.4359730000000002</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" s="3">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3">
+        <v>46.227637999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.213749</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3">
+        <v>51.165691000000002</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10.451525999999999</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3">
+        <v>52.132632999999998</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5.2912660000000002</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3">
+        <v>40.463667000000001</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-3.7492200000000002</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3">
+        <v>41.871940000000002</v>
+      </c>
+      <c r="D14" s="3">
+        <v>12.56738</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3">
+        <v>46.818187999999999</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8.2275120000000008</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" s="3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3">
+        <v>56.263919999999999</v>
+      </c>
+      <c r="D16" s="3">
+        <v>9.5017849999999999</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3">
+        <v>61.524009999999997</v>
+      </c>
+      <c r="D17" s="3">
+        <v>105.31875599999999</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="3">
+        <v>23.885942</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45.079161999999997</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3">
+        <v>36.204824000000002</v>
+      </c>
+      <c r="D19" s="3">
+        <v>138.25292400000001</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F19" s="3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-25.274398000000001</v>
+      </c>
+      <c r="D20" s="3">
+        <v>133.775136</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-40.900556999999999</v>
+      </c>
+      <c r="D21" s="3">
+        <v>174.88597100000001</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F21" s="3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="3">
+        <v>35.861660000000001</v>
+      </c>
+      <c r="D22" s="3">
+        <v>104.195397</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22" s="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="3">
+        <v>35.861660000000001</v>
+      </c>
+      <c r="D23" s="3">
+        <v>104.195397</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" s="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="3">
+        <v>22.396428</v>
+      </c>
+      <c r="D24" s="3">
+        <v>114.109497</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" s="3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="3">
+        <v>23.69781</v>
+      </c>
+      <c r="D25" s="3">
+        <v>120.960515</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="3">
+        <v>15.870032</v>
+      </c>
+      <c r="D26" s="3">
+        <v>100.992541</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F26" s="3">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="3">
+        <v>35.907756999999997</v>
+      </c>
+      <c r="D27" s="3">
+        <v>127.76692199999999</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27" s="3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-0.78927499999999995</v>
+      </c>
+      <c r="D28" s="3">
+        <v>113.92132700000001</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F28" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="3">
+        <v>20.593684</v>
+      </c>
+      <c r="D29" s="3">
+        <v>78.962879999999998</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F29" s="3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="3">
+        <v>20.593684</v>
+      </c>
+      <c r="D30" s="3">
+        <v>78.962879999999998</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" s="3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="3">
+        <v>12.879721</v>
+      </c>
+      <c r="D31" s="3">
+        <v>121.774017</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="3">
+        <v>14.058324000000001</v>
+      </c>
+      <c r="D32" s="3">
+        <v>108.277199</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" s="3">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="3">
+        <v>-35.675147000000003</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-71.542968999999999</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F33" s="3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4.5708679999999999</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-74.297332999999995</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4.2104840000000001</v>
+      </c>
+      <c r="D35" s="3">
+        <v>101.97576599999999</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F35" s="3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="D36" s="3">
+        <v>103.819836</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="3">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="3">
+        <v>-30.559481999999999</v>
+      </c>
+      <c r="D37" s="3">
+        <v>22.937505999999999</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F37" s="3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="3">
+        <v>35.907756999999997</v>
+      </c>
+      <c r="D38" s="3">
+        <v>127.76692199999999</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F38" s="3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-9.1899669999999993</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-75.015152</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F39" s="3">
+        <v>604</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/World_Indices_List.xlsx
+++ b/World_Indices_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="Currencies" sheetId="3" r:id="rId3"/>
     <sheet name="Commodities" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
-    <sheet name="iso" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet0" sheetId="6" r:id="rId6"/>
+    <sheet name="iso" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="268">
   <si>
     <t>Sr No</t>
   </si>
@@ -766,6 +767,63 @@
   </si>
   <si>
     <t>iso_num</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>BHR</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>OMN</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>TUR</t>
   </si>
 </sst>
 </file>
@@ -1132,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B61" sqref="A1:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,7 +2125,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C39"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3097,10 +3155,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3109,6 +3167,1213 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>37.090240000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-95.712890999999999</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="3">
+        <v>840</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>37.090240000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-95.712890999999999</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="3">
+        <v>840</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>37.090240000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-95.712890999999999</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="3">
+        <v>840</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>56.130366000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-106.346771</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="3">
+        <v>124</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-14.235004</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-51.925280000000001</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="3">
+        <v>76</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>23.634501</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-102.552784</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="3">
+        <v>484</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3">
+        <v>51.165691000000002</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10.451525999999999</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="3">
+        <v>276</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
+        <v>55.378050999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-3.4359730000000002</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" s="3">
+        <v>826</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3">
+        <v>46.227637999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.213749</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="3">
+        <v>250</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3">
+        <v>51.165691000000002</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10.451525999999999</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="3">
+        <v>276</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3">
+        <v>52.132632999999998</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5.2912660000000002</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="3">
+        <v>528</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3">
+        <v>40.463667000000001</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-3.7492200000000002</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="3">
+        <v>724</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3">
+        <v>41.871940000000002</v>
+      </c>
+      <c r="D14" s="3">
+        <v>12.56738</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="3">
+        <v>380</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3">
+        <v>46.818187999999999</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8.2275120000000008</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" s="3">
+        <v>756</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3">
+        <v>56.263919999999999</v>
+      </c>
+      <c r="D16" s="3">
+        <v>9.5017849999999999</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16" s="3">
+        <v>208</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3">
+        <v>61.524009999999997</v>
+      </c>
+      <c r="D17" s="3">
+        <v>105.31875599999999</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="3">
+        <v>643</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="3">
+        <v>23.885942</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45.079161999999997</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="3">
+        <v>682</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3">
+        <v>36.204824000000002</v>
+      </c>
+      <c r="D19" s="3">
+        <v>138.25292400000001</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F19" s="3">
+        <v>392</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-25.274398000000001</v>
+      </c>
+      <c r="D20" s="3">
+        <v>133.775136</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" s="3">
+        <v>36</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-40.900556999999999</v>
+      </c>
+      <c r="D21" s="3">
+        <v>174.88597100000001</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F21" s="3">
+        <v>554</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="3">
+        <v>35.861660000000001</v>
+      </c>
+      <c r="D22" s="3">
+        <v>104.195397</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22" s="3">
+        <v>156</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="3">
+        <v>35.861660000000001</v>
+      </c>
+      <c r="D23" s="3">
+        <v>104.195397</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" s="3">
+        <v>156</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="3">
+        <v>22.396428</v>
+      </c>
+      <c r="D24" s="3">
+        <v>114.109497</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" s="3">
+        <v>344</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="3">
+        <v>23.69781</v>
+      </c>
+      <c r="D25" s="3">
+        <v>120.960515</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="3">
+        <v>158</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="3">
+        <v>15.870032</v>
+      </c>
+      <c r="D26" s="3">
+        <v>100.992541</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F26" s="3">
+        <v>764</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="3">
+        <v>35.907756999999997</v>
+      </c>
+      <c r="D27" s="3">
+        <v>127.76692199999999</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27" s="3">
+        <v>410</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-0.78927499999999995</v>
+      </c>
+      <c r="D28" s="3">
+        <v>113.92132700000001</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F28" s="3">
+        <v>360</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="3">
+        <v>20.593684</v>
+      </c>
+      <c r="D29" s="3">
+        <v>78.962879999999998</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F29" s="3">
+        <v>356</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="3">
+        <v>20.593684</v>
+      </c>
+      <c r="D30" s="3">
+        <v>78.962879999999998</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" s="3">
+        <v>356</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="3">
+        <v>12.879721</v>
+      </c>
+      <c r="D31" s="3">
+        <v>121.774017</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="3">
+        <v>608</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="3">
+        <v>14.058324000000001</v>
+      </c>
+      <c r="D32" s="3">
+        <v>108.277199</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" s="3">
+        <v>704</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="3">
+        <v>-35.675147000000003</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-71.542968999999999</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F33" s="3">
+        <v>152</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4.5708679999999999</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-74.297332999999995</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="3">
+        <v>170</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4.2104840000000001</v>
+      </c>
+      <c r="D35" s="3">
+        <v>101.97576599999999</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F35" s="3">
+        <v>458</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="D36" s="3">
+        <v>103.819836</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="3">
+        <v>702</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="3">
+        <v>-30.559481999999999</v>
+      </c>
+      <c r="D37" s="3">
+        <v>22.937505999999999</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F37" s="3">
+        <v>710</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="3">
+        <v>35.907756999999997</v>
+      </c>
+      <c r="D38" s="3">
+        <v>127.76692199999999</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F38" s="3">
+        <v>410</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-9.1899669999999993</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-75.015152</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F39" s="3">
+        <v>604</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J45" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J61" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
@@ -3131,82 +4396,82 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3">
-        <v>37.090240000000001</v>
+        <v>-25.274398000000001</v>
       </c>
       <c r="D2" s="3">
-        <v>-95.712890999999999</v>
+        <v>133.775136</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="F2" s="3">
-        <v>840</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3">
-        <v>37.090240000000001</v>
+        <v>47.333300000000001</v>
       </c>
       <c r="D3" s="3">
-        <v>-95.712890999999999</v>
+        <v>13.333299999999999</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="F3" s="3">
-        <v>840</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C4" s="3">
-        <v>37.090240000000001</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3">
-        <v>-95.712890999999999</v>
+        <v>50.55</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="F4" s="3">
-        <v>840</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3">
-        <v>56.130366000000002</v>
+        <v>50.833300000000001</v>
       </c>
       <c r="D5" s="3">
-        <v>-106.346771</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="F5" s="3">
-        <v>124</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3231,665 +4496,928 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3">
-        <v>23.634501</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3">
-        <v>-102.552784</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="F7" s="3">
-        <v>484</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
-        <v>51.165691000000002</v>
+        <v>56.130366000000002</v>
       </c>
       <c r="D8" s="3">
-        <v>10.451525999999999</v>
+        <v>-106.346771</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F8" s="3">
-        <v>276</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3">
-        <v>55.378050999999999</v>
+        <v>-35.675147000000003</v>
       </c>
       <c r="D9" s="3">
-        <v>-3.4359730000000002</v>
+        <v>-71.542968999999999</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="F9" s="3">
-        <v>826</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3">
-        <v>46.227637999999999</v>
+        <v>35.861660000000001</v>
       </c>
       <c r="D10" s="3">
-        <v>2.213749</v>
+        <v>104.195397</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F10" s="3">
-        <v>250</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="C11" s="3">
-        <v>51.165691000000002</v>
+        <v>4.5708679999999999</v>
       </c>
       <c r="D11" s="3">
-        <v>10.451525999999999</v>
+        <v>-74.297332999999995</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="F11" s="3">
-        <v>276</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="C12" s="3">
-        <v>52.132632999999998</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3">
-        <v>5.2912660000000002</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="F12" s="3">
-        <v>528</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="C13" s="3">
-        <v>40.463667000000001</v>
+        <v>49.75</v>
       </c>
       <c r="D13" s="3">
-        <v>-3.7492200000000002</v>
+        <v>15.5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="F13" s="3">
-        <v>724</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3">
-        <v>41.871940000000002</v>
+        <v>56.263919999999999</v>
       </c>
       <c r="D14" s="3">
-        <v>12.56738</v>
+        <v>9.5017849999999999</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F14" s="3">
-        <v>380</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="C15" s="3">
-        <v>46.818187999999999</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3">
-        <v>8.2275120000000008</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="F15" s="3">
-        <v>756</v>
+        <v>818</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="C16" s="3">
-        <v>56.263919999999999</v>
+        <v>64</v>
       </c>
       <c r="D16" s="3">
-        <v>9.5017849999999999</v>
+        <v>26</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="F16" s="3">
-        <v>208</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
-        <v>61.524009999999997</v>
+        <v>46.227637999999999</v>
       </c>
       <c r="D17" s="3">
-        <v>105.31875599999999</v>
+        <v>2.213749</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F17" s="3">
-        <v>643</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3">
-        <v>23.885942</v>
+        <v>51.165691000000002</v>
       </c>
       <c r="D18" s="3">
-        <v>45.079161999999997</v>
+        <v>10.451525999999999</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F18" s="3">
-        <v>682</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C19" s="3">
-        <v>36.204824000000002</v>
+        <v>39</v>
       </c>
       <c r="D19" s="3">
-        <v>138.25292400000001</v>
+        <v>22</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="F19" s="3">
-        <v>392</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C20" s="3">
-        <v>-25.274398000000001</v>
+        <v>22.396428</v>
       </c>
       <c r="D20" s="3">
-        <v>133.775136</v>
+        <v>114.109497</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F20" s="3">
-        <v>36</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C21" s="3">
-        <v>-40.900556999999999</v>
+        <v>47</v>
       </c>
       <c r="D21" s="3">
-        <v>174.88597100000001</v>
+        <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="F21" s="3">
-        <v>554</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C22" s="3">
-        <v>35.861660000000001</v>
+        <v>20.593684</v>
       </c>
       <c r="D22" s="3">
-        <v>104.195397</v>
+        <v>78.962879999999998</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F22" s="3">
-        <v>156</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C23" s="3">
-        <v>35.861660000000001</v>
+        <v>-0.78927499999999995</v>
       </c>
       <c r="D23" s="3">
-        <v>104.195397</v>
+        <v>113.92132700000001</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F23" s="3">
-        <v>156</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="C24" s="3">
-        <v>22.396428</v>
+        <v>53</v>
       </c>
       <c r="D24" s="3">
-        <v>114.109497</v>
+        <v>-8</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="F24" s="3">
-        <v>344</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3">
-        <v>23.69781</v>
+        <v>41.871940000000002</v>
       </c>
       <c r="D25" s="3">
-        <v>120.960515</v>
+        <v>12.56738</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F25" s="3">
-        <v>158</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C26" s="3">
-        <v>15.870032</v>
+        <v>36.204824000000002</v>
       </c>
       <c r="D26" s="3">
-        <v>100.992541</v>
+        <v>138.25292400000001</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F26" s="3">
-        <v>764</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="C27" s="3">
-        <v>35.907756999999997</v>
+        <v>4.2104840000000001</v>
       </c>
       <c r="D27" s="3">
-        <v>127.76692199999999</v>
+        <v>101.97576599999999</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F27" s="3">
-        <v>410</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3">
-        <v>-0.78927499999999995</v>
+        <v>23.634501</v>
       </c>
       <c r="D28" s="3">
-        <v>113.92132700000001</v>
+        <v>-102.552784</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="F28" s="3">
-        <v>360</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3">
-        <v>20.593684</v>
+        <v>52.132632999999998</v>
       </c>
       <c r="D29" s="3">
-        <v>78.962879999999998</v>
+        <v>5.2912660000000002</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="F29" s="3">
-        <v>356</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C30" s="3">
-        <v>20.593684</v>
+        <v>-40.900556999999999</v>
       </c>
       <c r="D30" s="3">
-        <v>78.962879999999998</v>
+        <v>174.88597100000001</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F30" s="3">
-        <v>356</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C31" s="3">
-        <v>12.879721</v>
+        <v>21</v>
       </c>
       <c r="D31" s="3">
-        <v>121.774017</v>
+        <v>57</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="F31" s="3">
-        <v>608</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C32" s="3">
-        <v>14.058324000000001</v>
+        <v>30</v>
       </c>
       <c r="D32" s="3">
-        <v>108.277199</v>
+        <v>70</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="F32" s="3">
-        <v>704</v>
+        <v>586</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C33" s="3">
-        <v>-35.675147000000003</v>
+        <v>-9.1899669999999993</v>
       </c>
       <c r="D33" s="3">
-        <v>-71.542968999999999</v>
+        <v>-75.015152</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F33" s="3">
-        <v>152</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C34" s="3">
-        <v>4.5708679999999999</v>
+        <v>12.879721</v>
       </c>
       <c r="D34" s="3">
-        <v>-74.297332999999995</v>
+        <v>121.774017</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F34" s="3">
-        <v>170</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="C35" s="3">
-        <v>4.2104840000000001</v>
+        <v>52</v>
       </c>
       <c r="D35" s="3">
-        <v>101.97576599999999</v>
+        <v>20</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="F35" s="3">
-        <v>458</v>
+        <v>616</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="C36" s="3">
-        <v>1.3520829999999999</v>
+        <v>39.5</v>
       </c>
       <c r="D36" s="3">
-        <v>103.819836</v>
+        <v>-8</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="F36" s="3">
-        <v>702</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C37" s="3">
-        <v>-30.559481999999999</v>
+        <v>25.5</v>
       </c>
       <c r="D37" s="3">
-        <v>22.937505999999999</v>
+        <v>51.25</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="F37" s="3">
-        <v>710</v>
+        <v>634</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C38" s="3">
-        <v>35.907756999999997</v>
+        <v>61.524009999999997</v>
       </c>
       <c r="D38" s="3">
-        <v>127.76692199999999</v>
+        <v>105.31875599999999</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F38" s="3">
-        <v>410</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3">
-        <v>-9.1899669999999993</v>
+        <v>23.885942</v>
       </c>
       <c r="D39" s="3">
-        <v>-75.015152</v>
+        <v>45.079161999999997</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="F39" s="3">
-        <v>604</v>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="D40" s="3">
+        <v>103.819836</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F40" s="3">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="3">
+        <v>-30.559481999999999</v>
+      </c>
+      <c r="D41" s="3">
+        <v>22.937505999999999</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F41" s="3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="3">
+        <v>35.907756999999997</v>
+      </c>
+      <c r="D42" s="3">
+        <v>127.76692199999999</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F42" s="3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="3">
+        <v>40.463667000000001</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-3.7492200000000002</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="3">
+        <v>62</v>
+      </c>
+      <c r="D44" s="3">
+        <v>15</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F44" s="3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="3">
+        <v>46.818187999999999</v>
+      </c>
+      <c r="D45" s="3">
+        <v>8.2275120000000008</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" s="3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="3">
+        <v>23.69781</v>
+      </c>
+      <c r="D46" s="3">
+        <v>120.960515</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F46" s="3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="3">
+        <v>15.870032</v>
+      </c>
+      <c r="D47" s="3">
+        <v>100.992541</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F47" s="3">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="3">
+        <v>34</v>
+      </c>
+      <c r="D48" s="3">
+        <v>9</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F48" s="3">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="3">
+        <v>39</v>
+      </c>
+      <c r="D49" s="3">
+        <v>35</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F49" s="3">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="3">
+        <v>55.378050999999999</v>
+      </c>
+      <c r="D50" s="3">
+        <v>-3.4359730000000002</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" s="3">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="3">
+        <v>37.090240000000001</v>
+      </c>
+      <c r="D51" s="3">
+        <v>-95.712890999999999</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F51" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="3">
+        <v>14.058324000000001</v>
+      </c>
+      <c r="D52" s="3">
+        <v>108.277199</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F52" s="3">
+        <v>704</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F53">
+    <sortCondition ref="B2:B53"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/World_Indices_List.xlsx
+++ b/World_Indices_List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,17 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet0" sheetId="6" r:id="rId6"/>
     <sheet name="iso" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet2!$A$1:$E$48</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="309">
   <si>
     <t>Sr No</t>
   </si>
@@ -154,9 +158,6 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>SEKUSD=X</t>
-  </si>
-  <si>
     <t>OMXC25</t>
   </si>
   <si>
@@ -184,18 +185,12 @@
     <t>Poland</t>
   </si>
   <si>
-    <t>PLNUSD=X</t>
-  </si>
-  <si>
     <t>Budapest SE</t>
   </si>
   <si>
     <t>Hungary</t>
   </si>
   <si>
-    <t>HUFUSD=X</t>
-  </si>
-  <si>
     <t>BIST 100</t>
   </si>
   <si>
@@ -331,9 +326,6 @@
     <t>Pakistan</t>
   </si>
   <si>
-    <t>PKRUSD=X</t>
-  </si>
-  <si>
     <t>HNX 30</t>
   </si>
   <si>
@@ -349,18 +341,12 @@
     <t>Bahrain</t>
   </si>
   <si>
-    <t>BHDUSD=X</t>
-  </si>
-  <si>
     <t>BSE SOFIX</t>
   </si>
   <si>
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>BGNUSD=X</t>
-  </si>
-  <si>
     <t>S&amp;P CLX IPSA</t>
   </si>
   <si>
@@ -391,18 +377,12 @@
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>CZKUSD=X</t>
-  </si>
-  <si>
     <t>EGX 30</t>
   </si>
   <si>
     <t>Egypt</t>
   </si>
   <si>
-    <t>EGPUSD=X</t>
-  </si>
-  <si>
     <t>OMX Helsinki 25</t>
   </si>
   <si>
@@ -436,9 +416,6 @@
     <t>Oman</t>
   </si>
   <si>
-    <t>OMRUSD=X</t>
-  </si>
-  <si>
     <t>S&amp;P Lima General</t>
   </si>
   <si>
@@ -454,9 +431,6 @@
     <t>Qatar</t>
   </si>
   <si>
-    <t>QARUSD=X</t>
-  </si>
-  <si>
     <t>FTSE Singapore</t>
   </si>
   <si>
@@ -484,9 +458,6 @@
     <t>Tunisia</t>
   </si>
   <si>
-    <t>TNDUSD=X</t>
-  </si>
-  <si>
     <t>Canadian Dollar</t>
   </si>
   <si>
@@ -824,13 +795,169 @@
   </si>
   <si>
     <t>TUR</t>
+  </si>
+  <si>
+    <t>Nasdaq 100</t>
+  </si>
+  <si>
+    <t>USD/CAD</t>
+  </si>
+  <si>
+    <t>USD/BRL</t>
+  </si>
+  <si>
+    <t>USD/MXN</t>
+  </si>
+  <si>
+    <t>USD/EUR</t>
+  </si>
+  <si>
+    <t>USD/GBP</t>
+  </si>
+  <si>
+    <t>USD/CHF</t>
+  </si>
+  <si>
+    <t>USD/SEK</t>
+  </si>
+  <si>
+    <t>USD/DKK</t>
+  </si>
+  <si>
+    <t>USD/RUB</t>
+  </si>
+  <si>
+    <t>USD/PLN</t>
+  </si>
+  <si>
+    <t>USD/HUF</t>
+  </si>
+  <si>
+    <t>USD/TRY</t>
+  </si>
+  <si>
+    <t>USD/SAR</t>
+  </si>
+  <si>
+    <t>USD/JPY</t>
+  </si>
+  <si>
+    <t>USD/AUD</t>
+  </si>
+  <si>
+    <t>USD/NZD</t>
+  </si>
+  <si>
+    <t>USD/CNY</t>
+  </si>
+  <si>
+    <t>USD/HKD</t>
+  </si>
+  <si>
+    <t>USD/TWD</t>
+  </si>
+  <si>
+    <t>USD/THB</t>
+  </si>
+  <si>
+    <t>USD/KRW</t>
+  </si>
+  <si>
+    <t>USD/IDR</t>
+  </si>
+  <si>
+    <t>USD/INR</t>
+  </si>
+  <si>
+    <t>USD/PHP</t>
+  </si>
+  <si>
+    <t>USD/PKR</t>
+  </si>
+  <si>
+    <t>USD/VND</t>
+  </si>
+  <si>
+    <t>USD/BHD</t>
+  </si>
+  <si>
+    <t>USD/BGN</t>
+  </si>
+  <si>
+    <t>USD/CLP</t>
+  </si>
+  <si>
+    <t>USD/COP</t>
+  </si>
+  <si>
+    <t>USD/CZK</t>
+  </si>
+  <si>
+    <t>USD/EGP</t>
+  </si>
+  <si>
+    <t>USD/MYR</t>
+  </si>
+  <si>
+    <t>USD/OMR</t>
+  </si>
+  <si>
+    <t>USD/PEN</t>
+  </si>
+  <si>
+    <t>USD/SGD</t>
+  </si>
+  <si>
+    <t>USD/ZAR</t>
+  </si>
+  <si>
+    <t>USD/TND</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Euro Area</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Emerging</t>
+  </si>
+  <si>
+    <t>Developed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,13 +965,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -874,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -887,18 +1044,310 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF7D"/>
+      <color rgb="FFCCFFB3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:E48"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Country" dataDxfId="9"/>
+    <tableColumn id="2" name="Market" dataDxfId="8"/>
+    <tableColumn id="3" name="Last" dataDxfId="7"/>
+    <tableColumn id="4" name="Previous" dataDxfId="6"/>
+    <tableColumn id="5" name="Reference" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -944,7 +1393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -979,7 +1428,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1188,21 +1637,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B61" sqref="A1:D61"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1230,13 +1677,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>257</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1245,7 +1692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1260,7 +1707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1272,10 +1719,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1287,10 +1734,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1302,10 +1749,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1317,10 +1764,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1332,10 +1779,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1347,10 +1794,10 @@
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1362,10 +1809,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1377,10 +1824,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1392,10 +1839,10 @@
         <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1407,10 +1854,10 @@
         <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1422,10 +1869,10 @@
         <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1437,10 +1884,10 @@
         <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1452,10 +1899,10 @@
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1467,10 +1914,10 @@
         <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1482,637 +1929,622 @@
         <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <f t="shared" ref="A35:A60" si="1">A34+1</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <f t="shared" ref="A35:A61" si="1">A34+1</f>
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>154</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2124,18 +2556,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2163,7 +2595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A17" si="0">A2+1</f>
         <v>2</v>
@@ -2178,7 +2610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2193,7 +2625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2208,7 +2640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2223,7 +2655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2238,7 +2670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2253,7 +2685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2268,7 +2700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2283,7 +2715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2298,7 +2730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2313,7 +2745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2328,7 +2760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2343,7 +2775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2358,364 +2790,364 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f>A17+1</f>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" ref="A19:A39" si="1">A18+1</f>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2731,258 +3163,258 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2994,128 +3426,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3131,21 +3561,21 @@
       <selection sqref="A1:C246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f>Major!A39+1</f>
         <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3161,13 +3591,13 @@
       <selection activeCell="J2" sqref="J2:K61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3175,19 +3605,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3201,7 +3631,7 @@
         <v>-95.712890999999999</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F2" s="3">
         <v>840</v>
@@ -3213,7 +3643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3227,7 +3657,7 @@
         <v>-95.712890999999999</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F3" s="3">
         <v>840</v>
@@ -3239,7 +3669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3253,7 +3683,7 @@
         <v>-95.712890999999999</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F4" s="3">
         <v>840</v>
@@ -3265,7 +3695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3279,7 +3709,7 @@
         <v>-106.346771</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F5" s="3">
         <v>124</v>
@@ -3291,7 +3721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3305,7 +3735,7 @@
         <v>-51.925280000000001</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F6" s="3">
         <v>76</v>
@@ -3317,7 +3747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -3331,7 +3761,7 @@
         <v>-102.552784</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F7" s="3">
         <v>484</v>
@@ -3343,7 +3773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -3357,7 +3787,7 @@
         <v>10.451525999999999</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F8" s="3">
         <v>276</v>
@@ -3369,7 +3799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -3383,7 +3813,7 @@
         <v>-3.4359730000000002</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F9" s="3">
         <v>826</v>
@@ -3395,7 +3825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -3409,7 +3839,7 @@
         <v>2.213749</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F10" s="3">
         <v>250</v>
@@ -3421,7 +3851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -3435,7 +3865,7 @@
         <v>10.451525999999999</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F11" s="3">
         <v>276</v>
@@ -3447,7 +3877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -3461,7 +3891,7 @@
         <v>5.2912660000000002</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F12" s="3">
         <v>528</v>
@@ -3473,7 +3903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -3487,7 +3917,7 @@
         <v>-3.7492200000000002</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F13" s="3">
         <v>724</v>
@@ -3499,7 +3929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -3513,7 +3943,7 @@
         <v>12.56738</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F14" s="3">
         <v>380</v>
@@ -3525,7 +3955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -3539,7 +3969,7 @@
         <v>8.2275120000000008</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F15" s="3">
         <v>756</v>
@@ -3551,12 +3981,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C16" s="3">
         <v>56.263919999999999</v>
@@ -3565,7 +3995,7 @@
         <v>9.5017849999999999</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F16" s="3">
         <v>208</v>
@@ -3577,12 +4007,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C17" s="3">
         <v>61.524009999999997</v>
@@ -3591,7 +4021,7 @@
         <v>105.31875599999999</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F17" s="3">
         <v>643</v>
@@ -3603,12 +4033,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C18" s="3">
         <v>23.885942</v>
@@ -3617,7 +4047,7 @@
         <v>45.079161999999997</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F18" s="3">
         <v>682</v>
@@ -3629,12 +4059,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C19" s="3">
         <v>36.204824000000002</v>
@@ -3643,7 +4073,7 @@
         <v>138.25292400000001</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F19" s="3">
         <v>392</v>
@@ -3655,12 +4085,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3">
         <v>-25.274398000000001</v>
@@ -3669,24 +4099,24 @@
         <v>133.775136</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F20" s="3">
         <v>36</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C21" s="3">
         <v>-40.900556999999999</v>
@@ -3695,24 +4125,24 @@
         <v>174.88597100000001</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F21" s="3">
         <v>554</v>
       </c>
       <c r="J21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3">
         <v>35.861660000000001</v>
@@ -3721,24 +4151,24 @@
         <v>104.195397</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F22" s="3">
         <v>156</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C23" s="3">
         <v>35.861660000000001</v>
@@ -3747,24 +4177,24 @@
         <v>104.195397</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F23" s="3">
         <v>156</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C24" s="3">
         <v>22.396428</v>
@@ -3773,24 +4203,24 @@
         <v>114.109497</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="F24" s="3">
         <v>344</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C25" s="3">
         <v>23.69781</v>
@@ -3799,24 +4229,24 @@
         <v>120.960515</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F25" s="3">
         <v>158</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C26" s="3">
         <v>15.870032</v>
@@ -3825,24 +4255,24 @@
         <v>100.992541</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F26" s="3">
         <v>764</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C27" s="3">
         <v>35.907756999999997</v>
@@ -3851,24 +4281,24 @@
         <v>127.76692199999999</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F27" s="3">
         <v>410</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C28" s="3">
         <v>-0.78927499999999995</v>
@@ -3877,24 +4307,24 @@
         <v>113.92132700000001</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F28" s="3">
         <v>360</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C29" s="3">
         <v>20.593684</v>
@@ -3903,24 +4333,24 @@
         <v>78.962879999999998</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F29" s="3">
         <v>356</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C30" s="3">
         <v>20.593684</v>
@@ -3929,24 +4359,24 @@
         <v>78.962879999999998</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F30" s="3">
         <v>356</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C31" s="3">
         <v>12.879721</v>
@@ -3955,24 +4385,24 @@
         <v>121.774017</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F31" s="3">
         <v>608</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C32" s="3">
         <v>14.058324000000001</v>
@@ -3981,24 +4411,24 @@
         <v>108.277199</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F32" s="3">
         <v>704</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C33" s="3">
         <v>-35.675147000000003</v>
@@ -4007,24 +4437,24 @@
         <v>-71.542968999999999</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F33" s="3">
         <v>152</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C34" s="3">
         <v>4.5708679999999999</v>
@@ -4033,24 +4463,24 @@
         <v>-74.297332999999995</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F34" s="3">
         <v>170</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C35" s="3">
         <v>4.2104840000000001</v>
@@ -4059,24 +4489,24 @@
         <v>101.97576599999999</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F35" s="3">
         <v>458</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C36" s="3">
         <v>1.3520829999999999</v>
@@ -4085,24 +4515,24 @@
         <v>103.819836</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F36" s="3">
         <v>702</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C37" s="3">
         <v>-30.559481999999999</v>
@@ -4111,24 +4541,24 @@
         <v>22.937505999999999</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F37" s="3">
         <v>710</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C38" s="3">
         <v>35.907756999999997</v>
@@ -4137,24 +4567,24 @@
         <v>127.76692199999999</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F38" s="3">
         <v>410</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C39" s="3">
         <v>-9.1899669999999993</v>
@@ -4163,192 +4593,192 @@
         <v>-75.015152</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F39" s="3">
         <v>604</v>
       </c>
       <c r="J39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J40" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K40" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J41" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J41" s="2" t="s">
+      <c r="K41" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J42" s="2" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J43" s="2" t="s">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K43" s="2" t="s">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J45" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J44" s="2" t="s">
+      <c r="K45" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J46" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J45" s="2" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J47" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J46" s="2" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J48" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J47" s="2" t="s">
+    <row r="49" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K47" s="2" t="s">
+    </row>
+    <row r="50" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J50" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J48" s="2" t="s">
+      <c r="K50" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J49" s="2" t="s">
+    <row r="52" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J52" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J50" s="2" t="s">
+    <row r="53" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K50" s="2" t="s">
+    </row>
+    <row r="54" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J54" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="51" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J51" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="K54" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J55" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="52" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J52" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K52" s="2" t="s">
+    </row>
+    <row r="56" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J56" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="53" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J53" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K53" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J54" s="2" t="s">
+    </row>
+    <row r="57" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J57" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J55" s="2" t="s">
+    <row r="58" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J56" s="2" t="s">
+    </row>
+    <row r="59" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K56" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J57" s="2" t="s">
+    </row>
+    <row r="60" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J60" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J61" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J58" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J59" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J60" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J61" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4364,17 +4794,17 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4382,24 +4812,24 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3">
         <v>-25.274398000000001</v>
@@ -4408,13 +4838,13 @@
         <v>133.775136</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F2" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -4428,18 +4858,18 @@
         <v>13.333299999999999</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F3" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3">
         <v>26</v>
@@ -4448,13 +4878,13 @@
         <v>50.55</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F4" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -4468,13 +4898,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F5" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -4488,18 +4918,18 @@
         <v>-51.925280000000001</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F6" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C7" s="3">
         <v>43</v>
@@ -4508,13 +4938,13 @@
         <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="F7" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -4528,18 +4958,18 @@
         <v>-106.346771</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F8" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C9" s="3">
         <v>-35.675147000000003</v>
@@ -4548,18 +4978,18 @@
         <v>-71.542968999999999</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F9" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3">
         <v>35.861660000000001</v>
@@ -4568,18 +4998,18 @@
         <v>104.195397</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F10" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C11" s="3">
         <v>4.5708679999999999</v>
@@ -4588,18 +5018,18 @@
         <v>-74.297332999999995</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F11" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C12" s="3">
         <v>35</v>
@@ -4608,18 +5038,18 @@
         <v>33</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F12" s="3">
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C13" s="3">
         <v>49.75</v>
@@ -4628,18 +5058,18 @@
         <v>15.5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F13" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C14" s="3">
         <v>56.263919999999999</v>
@@ -4648,18 +5078,18 @@
         <v>9.5017849999999999</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F14" s="3">
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3">
         <v>27</v>
@@ -4668,18 +5098,18 @@
         <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F15" s="3">
         <v>818</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C16" s="3">
         <v>64</v>
@@ -4688,13 +5118,13 @@
         <v>26</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F16" s="3">
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -4708,13 +5138,13 @@
         <v>2.213749</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F17" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -4728,18 +5158,18 @@
         <v>10.451525999999999</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F18" s="3">
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C19" s="3">
         <v>39</v>
@@ -4748,18 +5178,18 @@
         <v>22</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F19" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C20" s="3">
         <v>22.396428</v>
@@ -4768,18 +5198,18 @@
         <v>114.109497</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="F20" s="3">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="3">
         <v>47</v>
@@ -4788,18 +5218,18 @@
         <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F21" s="3">
         <v>348</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C22" s="3">
         <v>20.593684</v>
@@ -4808,18 +5238,18 @@
         <v>78.962879999999998</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F22" s="3">
         <v>356</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C23" s="3">
         <v>-0.78927499999999995</v>
@@ -4828,18 +5258,18 @@
         <v>113.92132700000001</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F23" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C24" s="3">
         <v>53</v>
@@ -4848,13 +5278,13 @@
         <v>-8</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F24" s="3">
         <v>372</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -4868,18 +5298,18 @@
         <v>12.56738</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F25" s="3">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3">
         <v>36.204824000000002</v>
@@ -4888,18 +5318,18 @@
         <v>138.25292400000001</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F26" s="3">
         <v>392</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C27" s="3">
         <v>4.2104840000000001</v>
@@ -4908,13 +5338,13 @@
         <v>101.97576599999999</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F27" s="3">
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -4928,13 +5358,13 @@
         <v>-102.552784</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F28" s="3">
         <v>484</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -4948,18 +5378,18 @@
         <v>5.2912660000000002</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F29" s="3">
         <v>528</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C30" s="3">
         <v>-40.900556999999999</v>
@@ -4968,18 +5398,18 @@
         <v>174.88597100000001</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F30" s="3">
         <v>554</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C31" s="3">
         <v>21</v>
@@ -4988,18 +5418,18 @@
         <v>57</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F31" s="3">
         <v>512</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C32" s="3">
         <v>30</v>
@@ -5008,18 +5438,18 @@
         <v>70</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F32" s="3">
         <v>586</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C33" s="3">
         <v>-9.1899669999999993</v>
@@ -5028,18 +5458,18 @@
         <v>-75.015152</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F33" s="3">
         <v>604</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C34" s="3">
         <v>12.879721</v>
@@ -5048,18 +5478,18 @@
         <v>121.774017</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F34" s="3">
         <v>608</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C35" s="3">
         <v>52</v>
@@ -5068,13 +5498,13 @@
         <v>20</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="F35" s="3">
         <v>616</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -5088,18 +5518,18 @@
         <v>-8</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F36" s="3">
         <v>620</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C37" s="3">
         <v>25.5</v>
@@ -5108,18 +5538,18 @@
         <v>51.25</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F37" s="3">
         <v>634</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C38" s="3">
         <v>61.524009999999997</v>
@@ -5128,18 +5558,18 @@
         <v>105.31875599999999</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F38" s="3">
         <v>643</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C39" s="3">
         <v>23.885942</v>
@@ -5148,18 +5578,18 @@
         <v>45.079161999999997</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F39" s="3">
         <v>682</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C40" s="3">
         <v>1.3520829999999999</v>
@@ -5168,18 +5598,18 @@
         <v>103.819836</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F40" s="3">
         <v>702</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C41" s="3">
         <v>-30.559481999999999</v>
@@ -5188,18 +5618,18 @@
         <v>22.937505999999999</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F41" s="3">
         <v>710</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C42" s="3">
         <v>35.907756999999997</v>
@@ -5208,13 +5638,13 @@
         <v>127.76692199999999</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F42" s="3">
         <v>410</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>29</v>
       </c>
@@ -5228,13 +5658,13 @@
         <v>-3.7492200000000002</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F43" s="3">
         <v>724</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -5248,13 +5678,13 @@
         <v>15</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F44" s="3">
         <v>752</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>33</v>
       </c>
@@ -5268,18 +5698,18 @@
         <v>8.2275120000000008</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F45" s="3">
         <v>756</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C46" s="3">
         <v>23.69781</v>
@@ -5288,18 +5718,18 @@
         <v>120.960515</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F46" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C47" s="3">
         <v>15.870032</v>
@@ -5308,18 +5738,18 @@
         <v>100.992541</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F47" s="3">
         <v>764</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C48" s="3">
         <v>34</v>
@@ -5328,18 +5758,18 @@
         <v>9</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F48" s="3">
         <v>788</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C49" s="3">
         <v>39</v>
@@ -5348,13 +5778,13 @@
         <v>35</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F49" s="3">
         <v>792</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>21</v>
       </c>
@@ -5368,13 +5798,13 @@
         <v>-3.4359730000000002</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F50" s="3">
         <v>826</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>4</v>
       </c>
@@ -5388,18 +5818,18 @@
         <v>-95.712890999999999</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F51" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C52" s="3">
         <v>14.058324000000001</v>
@@ -5408,7 +5838,7 @@
         <v>108.277199</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F52" s="3">
         <v>704</v>
@@ -5420,4 +5850,876 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="10">
+        <v>53.5</v>
+      </c>
+      <c r="D2" s="10">
+        <v>51.7</v>
+      </c>
+      <c r="E2" s="8">
+        <v>44550</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIF(C2:C22,"&gt;50")</f>
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <f>COUNTIF(D2:D22,"&gt;50")</f>
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <f>COUNT(C2:C22)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="10">
+        <v>57.9</v>
+      </c>
+      <c r="D3" s="10">
+        <v>55.8</v>
+      </c>
+      <c r="E3" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="10">
+        <v>41.87</v>
+      </c>
+      <c r="D4" s="10">
+        <v>47.02</v>
+      </c>
+      <c r="E4" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="D5" s="10">
+        <v>53.8</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="10">
+        <v>51.1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>49.6</v>
+      </c>
+      <c r="E6" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="10">
+        <v>58.3</v>
+      </c>
+      <c r="D7" s="10">
+        <v>57.8</v>
+      </c>
+      <c r="E7" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="10">
+        <v>43.5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>50.1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="10">
+        <v>57.2</v>
+      </c>
+      <c r="D9" s="10">
+        <v>52.2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="10">
+        <v>52.8</v>
+      </c>
+      <c r="D10" s="10">
+        <v>51.5</v>
+      </c>
+      <c r="E10" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="10">
+        <v>50</v>
+      </c>
+      <c r="D11" s="10">
+        <v>49</v>
+      </c>
+      <c r="E11" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="10">
+        <v>58.2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>54.4</v>
+      </c>
+      <c r="E12" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="10">
+        <v>51.9</v>
+      </c>
+      <c r="D13" s="10">
+        <v>52</v>
+      </c>
+      <c r="E13" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="10">
+        <v>50.5</v>
+      </c>
+      <c r="D14" s="10">
+        <v>50.4</v>
+      </c>
+      <c r="E14" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" s="10">
+        <v>51</v>
+      </c>
+      <c r="D15" s="10">
+        <v>49.8</v>
+      </c>
+      <c r="E15" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="10">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="D16" s="10">
+        <v>59.8</v>
+      </c>
+      <c r="E16" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="10">
+        <v>58</v>
+      </c>
+      <c r="D17" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="E17" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="10">
+        <v>57.5</v>
+      </c>
+      <c r="D18" s="10">
+        <v>55.6</v>
+      </c>
+      <c r="E18" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" s="10">
+        <v>57.1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>56.7</v>
+      </c>
+      <c r="E19" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C20" s="10">
+        <v>52.1</v>
+      </c>
+      <c r="D20" s="10">
+        <v>56.3</v>
+      </c>
+      <c r="E20" s="8">
+        <v>44520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C21" s="10">
+        <v>57.1</v>
+      </c>
+      <c r="D21" s="10">
+        <v>54.9</v>
+      </c>
+      <c r="E21" s="8">
+        <v>44520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" s="10">
+        <v>55.3</v>
+      </c>
+      <c r="D22" s="10">
+        <v>51.7</v>
+      </c>
+      <c r="E22" s="8">
+        <v>44520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C23" s="10">
+        <v>61.5</v>
+      </c>
+      <c r="D23" s="10">
+        <v>64</v>
+      </c>
+      <c r="E23" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" s="10">
+        <v>53</v>
+      </c>
+      <c r="D24" s="10">
+        <v>54.9</v>
+      </c>
+      <c r="E24" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C25" s="10">
+        <v>51.8</v>
+      </c>
+      <c r="D25" s="10">
+        <v>52.1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="10">
+        <v>57</v>
+      </c>
+      <c r="D26" s="10">
+        <v>53.9</v>
+      </c>
+      <c r="E26" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" s="10">
+        <v>48.2</v>
+      </c>
+      <c r="D27" s="10">
+        <v>50.9</v>
+      </c>
+      <c r="E27" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C28" s="10">
+        <v>46.9</v>
+      </c>
+      <c r="D28" s="10">
+        <v>42.3</v>
+      </c>
+      <c r="E28" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" s="10">
+        <v>51.1</v>
+      </c>
+      <c r="D29" s="10">
+        <v>51.1</v>
+      </c>
+      <c r="E29" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" s="10">
+        <v>56.4</v>
+      </c>
+      <c r="D30" s="10">
+        <v>56.3</v>
+      </c>
+      <c r="E30" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="10">
+        <v>51.3</v>
+      </c>
+      <c r="D31" s="10">
+        <v>50.6</v>
+      </c>
+      <c r="E31" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C32" s="10">
+        <v>51.4</v>
+      </c>
+      <c r="D32" s="10">
+        <v>51.3</v>
+      </c>
+      <c r="E32" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C33" s="10">
+        <v>49.1</v>
+      </c>
+      <c r="D33" s="10">
+        <v>48.4</v>
+      </c>
+      <c r="E33" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C34" s="10">
+        <v>42.4</v>
+      </c>
+      <c r="D34" s="10">
+        <v>43.7</v>
+      </c>
+      <c r="E34" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C35" s="10">
+        <v>49.6</v>
+      </c>
+      <c r="D35" s="10">
+        <v>50.2</v>
+      </c>
+      <c r="E35" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" s="10">
+        <v>49.2</v>
+      </c>
+      <c r="D36" s="10">
+        <v>49.9</v>
+      </c>
+      <c r="E36" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C37" s="10">
+        <v>51.7</v>
+      </c>
+      <c r="D37" s="10">
+        <v>50.8</v>
+      </c>
+      <c r="E37" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" s="10">
+        <v>51.8</v>
+      </c>
+      <c r="D38" s="10">
+        <v>52.5</v>
+      </c>
+      <c r="E38" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C39" s="10">
+        <v>49.7</v>
+      </c>
+      <c r="D39" s="10">
+        <v>46.3</v>
+      </c>
+      <c r="E39" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40" s="10">
+        <v>57</v>
+      </c>
+      <c r="D40" s="10">
+        <v>54.7</v>
+      </c>
+      <c r="E40" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C41" s="10">
+        <v>50.3</v>
+      </c>
+      <c r="D41" s="10">
+        <v>52.6</v>
+      </c>
+      <c r="E41" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C42" s="10">
+        <v>52.9</v>
+      </c>
+      <c r="D42" s="10">
+        <v>52.9</v>
+      </c>
+      <c r="E42" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C43" s="10">
+        <v>59.4</v>
+      </c>
+      <c r="D43" s="10">
+        <v>56.9</v>
+      </c>
+      <c r="E43" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="10">
+        <v>50.8</v>
+      </c>
+      <c r="D44" s="10">
+        <v>50.4</v>
+      </c>
+      <c r="E44" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C45" s="10">
+        <v>50.8</v>
+      </c>
+      <c r="D45" s="10">
+        <v>51.4</v>
+      </c>
+      <c r="E45" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C46" s="10">
+        <v>51.2</v>
+      </c>
+      <c r="D46" s="10">
+        <v>49.5</v>
+      </c>
+      <c r="E46" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="10">
+        <v>51.7</v>
+      </c>
+      <c r="D47" s="10">
+        <v>49.9</v>
+      </c>
+      <c r="E47" s="8">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C48" s="10">
+        <v>57.6</v>
+      </c>
+      <c r="D48" s="10">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E48" s="8">
+        <v>44520</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:D48">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>